--- a/docs/CareConnect-Practitioner-1.xlsx
+++ b/docs/CareConnect-Practitioner-1.xlsx
@@ -225,8 +225,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element.   This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -342,7 +341,7 @@
     <t>nhsCommunication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-NHSCommunication-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-NHSCommunication-1}
 </t>
   </si>
   <si>
@@ -494,8 +493,7 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
@@ -598,7 +596,7 @@
     <t>Practitioner.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -642,9 +640,7 @@
     <t>Whether this practitioner's record is in active use.</t>
   </si>
   <si>
-    <t>Default is true. --If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
+    <t>Default is true.   If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
   </si>
   <si>
     <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
@@ -672,15 +668,7 @@
     <t>The name(s) associated with the practitioner.</t>
   </si>
   <si>
-    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.--In general select the value to be used in the ResourceReference.display based on this:--1. There is more than 1 name-2. Use = usual-3. Period is current to the date of the usage-4. Use = official-5. Other order as decided by internal business rules.</t>
+    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.  In general select the value to be used in the ResourceReference.display based on this:  1. There is more than 1 name 2. Use = usual 3. Period is current to the date of the usage 4. Use = official 5. Other order as decided by internal business rules.</t>
   </si>
   <si>
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
@@ -708,9 +696,7 @@
     <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
   </si>
   <si>
-    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently, and also to help with identification--These typically will have home numbers, or mobile numbers that are not role specific.</t>
+    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently, and also to help with identification  These typically will have home numbers, or mobile numbers that are not role specific.</t>
   </si>
   <si>
     <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
@@ -735,8 +721,7 @@
     <t>Address(es) of the practitioner that are not role specific (typically home address)</t>
   </si>
   <si>
-    <t>Address(es) of the practitioner that are not role specific (typically home address). -Work addresses are not typically entered in this property as they are usually role dependent.</t>
+    <t>Address(es) of the practitioner that are not role specific (typically home address).  Work addresses are not typically entered in this property as they are usually role dependent.</t>
   </si>
   <si>
     <t>The PractitionerRole does not have an address value on it, as it is expected that the location property be used for this purpose (which has an address).</t>
@@ -766,7 +751,7 @@
     <t>Needed to address the person correctly.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-AdministrativeGender-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-AdministrativeGender-1</t>
   </si>
   <si>
     <t>STF-5</t>
@@ -1163,7 +1148,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.40234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.23828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
